--- a/matriceSimilarite.xlsx
+++ b/matriceSimilarite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majer\OneDrive\Documents\Paul\ProgrammesR\boursiR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875C0771-F942-4EC1-9FF5-90D5E780CC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526EA47-F7EF-4FD6-8A4D-F778432D9C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A88D443-82EB-4374-A10D-0646DCFFCC00}"/>
   </bookViews>
